--- a/data/5_results/no_prompt/result_no_prompt_4.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_4.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,548</t>
+          <t>0,725</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,627</t>
+          <t>0,871</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,585</t>
+          <t>0,791</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,507</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,536</t>
+          <t>0,725</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,627</t>
+          <t>0,902</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,578</t>
+          <t>0,804</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,507</t>
+          <t>0,953</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,532</t>
+          <t>0,758</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,615</t>
+          <t>0,938</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,570</t>
+          <t>0,838</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,514</t>
+          <t>0,998</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,507</t>
+          <t>0,717</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,602</t>
+          <t>0,922</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,550</t>
+          <t>0,807</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,486</t>
+          <t>0,962</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,469</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,469</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,469</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,451</t>
+          <t>0,554</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,486</t>
+          <t>0,607</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,468</t>
+          <t>0,580</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,349</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,195</t>
+          <t>0,293</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,237</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,214</t>
+          <t>0,338</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,151</t>
+          <t>0,970</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,221</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,248</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,233</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,205</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,239</t>
+          <t>0,531</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,293</t>
+          <t>0,895</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,264</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,233</t>
+          <t>0,877</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,189</t>
+          <t>0,490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,208</t>
+          <t>0,641</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,198</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,171</t>
+          <t>0,981</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,174</t>
+          <t>0,451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,195</t>
+          <t>0,622</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,184</t>
+          <t>0,523</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>0,966</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,198</t>
+          <t>0,520</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,213</t>
+          <t>0,634</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,206</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,178</t>
+          <t>0,981</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,189</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,207</t>
+          <t>0,641</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,198</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,171</t>
+          <t>0,959</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,241</t>
+          <t>0,607</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,274</t>
+          <t>0,872</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,257</t>
+          <t>0,716</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,233</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,228</t>
+          <t>0,516</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,287</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,254</t>
+          <t>0,673</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,226</t>
+          <t>0,822</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,169</t>
+          <t>0,460</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,193</t>
+          <t>0,697</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,180</t>
+          <t>0,554</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1243,22 +1243,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,117</t>
+          <t>0,516</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,122</t>
+          <t>0,640</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,119</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,110</t>
+          <t>0,962</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,178</t>
+          <t>0,840</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,568</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,144</t>
+          <t>0,687</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,141</t>
+          <t>0,408</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,171</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,548</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,137</t>
+          <t>0,654</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,095</t>
+          <t>0,481</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,098</t>
+          <t>0,591</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,097</t>
+          <t>0,531</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,089</t>
+          <t>0,938</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,051</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,050</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,072</t>
+          <t>0,476</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,074</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,526</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,952</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>0,950</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1565,22 +1565,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,065</t>
+          <t>0,450</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,067</t>
+          <t>0,529</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,066</t>
+          <t>0,486</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>0,947</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,190</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,106</t>
+          <t>0,577</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,109</t>
+          <t>0,652</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,103</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,072</t>
+          <t>0,217</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,080</t>
+          <t>0,317</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,042</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,042</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>0,706</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,720</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1841,22 +1841,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,779</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,152</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,042</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,039</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,069</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,909</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,070</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,480</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2025,22 +2025,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,389</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,052</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,050</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2071,22 +2071,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,312</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2163,22 +2163,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,883</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2485,22 +2485,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,863</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2531,22 +2531,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2715,22 +2715,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,718</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,967</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,145</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3619,22 +3619,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4318,22 +4318,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,742</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,292</t>
+          <t>0,592</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,245</t>
+          <t>0,935</t>
         </is>
       </c>
     </row>

--- a/data/5_results/no_prompt/result_no_prompt_4.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_4.xlsx
@@ -440,10 +440,10 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="4" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -507,17 +507,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,725</t>
+          <t>0,763</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,871</t>
+          <t>0,892</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,791</t>
+          <t>0,823</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -527,22 +527,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>85,000</t>
+          <t>130,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,725</t>
+          <t>0,803</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,902</t>
+          <t>0,953</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,804</t>
+          <t>0,871</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,953</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>82,000</t>
+          <t>128,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,758</t>
+          <t>0,775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,938</t>
+          <t>0,921</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,838</t>
+          <t>0,842</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,998</t>
+          <t>0,999</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>127,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,717</t>
+          <t>0,762</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,922</t>
+          <t>0,920</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,807</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,962</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77,000</t>
+          <t>125,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,469</t>
+          <t>0,514</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,469</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,469</t>
+          <t>0,507</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>96,000</t>
+          <t>150,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,554</t>
+          <t>0,503</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,607</t>
+          <t>0,493</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,580</t>
+          <t>0,498</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>84,000</t>
+          <t>148,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="J7" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,293</t>
+          <t>0,184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,338</t>
+          <t>0,243</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,970</t>
+          <t>0,987</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>55,000</t>
+          <t>70,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,671</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,671</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>0,671</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>76,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I9" t="n">
         <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,531</t>
+          <t>0,481</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,895</t>
+          <t>0,765</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,591</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,877</t>
+          <t>0,986</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38,000</t>
+          <t>68,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,490</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,641</t>
+          <t>0,618</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,564</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,981</t>
+          <t>0,983</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>68,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I11" t="n">
+        <v>39</v>
+      </c>
+      <c r="J11" t="n">
         <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,451</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,622</t>
+          <t>0,530</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,523</t>
+          <t>0,476</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,966</t>
+          <t>0,994</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>37,000</t>
+          <t>66,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,520</t>
+          <t>0,537</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,634</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1028,27 +1028,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,981</t>
+          <t>0,984</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>72,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,463</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,641</t>
+          <t>0,551</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,562</t>
+          <t>0,503</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,959</t>
+          <t>0,993</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>69,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,607</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,872</t>
+          <t>0,811</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,716</t>
+          <t>0,682</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>74,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,516</t>
+          <t>0,495</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,971</t>
+          <t>0,806</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,673</t>
+          <t>0,614</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,822</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>34,000</t>
+          <t>67,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I16" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,460</t>
+          <t>0,487</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,697</t>
+          <t>0,673</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,554</t>
+          <t>0,565</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,970</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>33,000</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I17" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,516</t>
+          <t>0,377</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,640</t>
+          <t>0,488</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,426</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,962</t>
+          <t>0,969</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>41,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,418</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,840</t>
+          <t>0,575</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,484</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,687</t>
+          <t>0,786</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,408</t>
+          <t>0,464</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,634</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,548</t>
+          <t>0,536</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,654</t>
+          <t>0,759</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>41,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1381,27 +1381,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,481</t>
+          <t>0,340</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,591</t>
+          <t>0,531</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,531</t>
+          <t>0,415</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,938</t>
+          <t>0,931</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>32,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,519</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,526</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,952</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1519,27 +1519,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,424</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,950</t>
+          <t>0,874</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
         <v>5</v>
       </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,450</t>
+          <t>0,696</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,529</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,486</t>
+          <t>0,711</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,947</t>
+          <t>0,989</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,190</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1631,22 +1631,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1657,19 +1657,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,577</t>
+          <t>0,720</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>0,783</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>0,750</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0,652</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>1,000</t>
@@ -1677,19 +1677,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
@@ -1703,42 +1703,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,217</t>
+          <t>0,177</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,440</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,317</t>
+          <t>0,253</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,989</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1749,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,387</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,706</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1795,27 +1795,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,692</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,706</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,720</t>
+          <t>0,558</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,894</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1841,42 +1841,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,059</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,273</t>
+          <t>0,080</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,779</t>
+          <t>0,646</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1887,42 +1887,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,152</t>
+          <t>0,156</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,227</t>
+          <t>0,219</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,986</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,480</t>
+          <t>0,552</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H34" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
         <v>6</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,389</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,778</t>
+          <t>0,933</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,519</t>
+          <t>0,757</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2071,42 +2071,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,312</t>
+          <t>0,115</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,146</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,240</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2241,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2255,42 +2255,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2301,17 +2301,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2321,19 +2321,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>2</v>
@@ -2347,39 +2347,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -2393,42 +2393,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>0,500</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0,667</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0,571</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,883</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2464,17 +2464,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2485,42 +2485,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,476</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,863</t>
+          <t>0,846</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,088</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,140</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2551,22 +2551,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,737</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -2623,17 +2623,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -2669,42 +2669,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,918</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2715,27 +2715,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,800</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,518</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2761,42 +2761,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,718</t>
+          <t>0,751</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2807,27 +2807,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,967</t>
+          <t>0,849</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2945,17 +2945,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2965,19 +2965,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>2</v>
@@ -2991,146 +2991,134 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,897</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Space closure loop mechanics</t>
+          <t>space closure loop mechanics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Upper Banding</t>
+          <t>upper banding</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -3161,12 +3149,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3176,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3202,7 +3190,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,391</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3212,14 +3200,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
@@ -3248,17 +3236,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,145</t>
+          <t>0,575</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3268,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3304,7 +3292,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3320,105 +3308,93 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lower Banding</t>
+          <t>lower banding</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Patient ID.1</t>
+          <t>patient id.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3444,79 +3420,73 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Anterior Bite Turbos</t>
+          <t>anterior bite turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3547,12 +3517,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3562,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3588,12 +3558,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3605,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3619,27 +3589,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3648,13 +3618,13 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3764,93 +3734,105 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>debonded bracket/band</t>
+          <t>Debonded Bracket/Band</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lower arch curve of spee</t>
+          <t>Lower Arch Curve of Spee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3965,42 +3947,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4244,7 +4226,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -4318,22 +4300,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,428</t>
+          <t>0,423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,742</t>
+          <t>0,810</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,592</t>
+          <t>0,580</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,935</t>
+          <t>0,955</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4383,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -4411,7 +4393,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/no_prompt/result_no_prompt_4.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_4.xlsx
@@ -443,7 +443,7 @@
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,763</t>
+          <t>0,735</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,892</t>
+          <t>0,844</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,823</t>
+          <t>0,785</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>130,000</t>
+          <t>128,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,803</t>
+          <t>0,707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,953</t>
+          <t>0,812</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,871</t>
+          <t>0,756</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>0,975</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,775</t>
+          <t>0,776</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,921</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,842</t>
+          <t>0,817</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,999</t>
+          <t>0,955</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>127,000</t>
+          <t>132,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,762</t>
+          <t>0,721</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,920</t>
+          <t>0,848</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,779</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>0,972</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,514</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,587</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,507</t>
+          <t>0,585</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>0,983</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>150,000</t>
+          <t>138,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,503</t>
+          <t>0,604</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,493</t>
+          <t>0,618</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,498</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>148,000</t>
+          <t>136,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I7" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,184</t>
+          <t>0,209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,343</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,243</t>
+          <t>0,259</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,987</t>
+          <t>0,980</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -829,39 +829,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,671</t>
+          <t>0,526</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,671</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,671</t>
+          <t>0,567</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,792</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>76,000</t>
+          <t>65,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
         <v>25</v>
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,481</t>
+          <t>0,393</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,765</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,591</t>
+          <t>0,507</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,986</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68,000</t>
+          <t>49,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,519</t>
+          <t>0,613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,618</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,564</t>
+          <t>0,685</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,983</t>
+          <t>0,994</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J11" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -967,27 +967,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,432</t>
+          <t>0,525</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,530</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>0,587</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,994</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I12" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,537</t>
+          <t>0,635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,611</t>
+          <t>0,723</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,676</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,984</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72,000</t>
+          <t>65,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I13" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,463</t>
+          <t>0,608</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,551</t>
+          <t>0,703</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,503</t>
+          <t>0,652</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,993</t>
+          <t>0,998</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69,000</t>
+          <t>64,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,811</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,682</t>
+          <t>0,595</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>74,000</t>
+          <t>57,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I15" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,495</t>
+          <t>0,461</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,806</t>
+          <t>0,745</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,614</t>
+          <t>0,569</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>67,000</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,487</t>
+          <t>0,568</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,673</t>
+          <t>0,793</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,565</t>
+          <t>0,662</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,970</t>
+          <t>0,986</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>55,000</t>
+          <t>58,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,377</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,488</t>
+          <t>0,474</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,426</t>
+          <t>0,454</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,969</t>
+          <t>0,970</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>57,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,418</t>
+          <t>0,396</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,575</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,484</t>
+          <t>0,477</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,786</t>
+          <t>0,895</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>35,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" t="n">
         <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1335,27 +1335,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,464</t>
+          <t>0,528</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,634</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,536</t>
+          <t>0,602</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,759</t>
+          <t>0,903</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,340</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,531</t>
+          <t>0,659</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,415</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,931</t>
+          <t>0,950</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32,000</t>
+          <t>41,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,278</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,294</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,739</t>
+          <t>0,676</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,739</t>
+          <t>0,658</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,739</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,984</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>38,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1519,42 +1519,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,211</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,424</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,874</t>
+          <t>0,869</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,696</t>
+          <t>0,806</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,744</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,711</t>
+          <t>0,773</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,989</t>
+          <t>0,978</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,105</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,087</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,095</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1631,22 +1631,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,720</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,783</t>
+          <t>0,652</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,536</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="H27" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" t="n">
         <v>18</v>
       </c>
-      <c r="I27" t="n">
-        <v>7</v>
-      </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1703,42 +1703,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,177</t>
+          <t>0,281</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,440</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,253</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,989</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J28" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,387</t>
+          <t>0,158</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1795,42 +1795,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,706</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,558</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,894</t>
+          <t>0,817</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1841,42 +1841,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,095</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,059</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,080</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,646</t>
+          <t>0,252</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
+        <v>19</v>
+      </c>
+      <c r="J31" t="n">
         <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1887,42 +1887,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,156</t>
+          <t>0,378</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,368</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,219</t>
+          <t>0,483</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,986</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23</v>
+      </c>
+      <c r="J32" t="n">
         <v>7</v>
-      </c>
-      <c r="I32" t="n">
-        <v>38</v>
-      </c>
-      <c r="J32" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,586</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,909</t>
+          <t>0,895</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,769</t>
+          <t>0,708</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,552</t>
+          <t>0,410</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,619</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,933</t>
+          <t>0,542</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,757</t>
+          <t>0,578</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
         <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,115</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,146</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,240</t>
+          <t>0,118</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
         <v>5</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2260,31 +2260,31 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2301,27 +2301,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,857</t>
+          <t>0,917</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,917</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2330,13 +2330,13 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,211</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2393,42 +2393,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0,143</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2439,17 +2439,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2459,68 +2459,74 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
         <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cross elastic</t>
+          <t>Cross Elastic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,846</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2531,22 +2537,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,088</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2560,13 +2566,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2577,17 +2583,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,737</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2597,22 +2603,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2623,17 +2629,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,778</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2643,22 +2649,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2669,42 +2675,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,918</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2715,39 +2721,39 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,518</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>4</v>
@@ -2761,42 +2767,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,751</t>
+          <t>0,504</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2807,42 +2813,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0,167</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0,250</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0,800</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2853,42 +2859,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,849</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2914,27 +2920,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2965,7 +2971,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2977,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
         <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2991,42 +2997,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,897</t>
+          <t>0,850</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -3042,27 +3048,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3072,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3083,17 +3089,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3103,7 +3109,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3112,7 +3118,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -3190,27 +3196,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3236,12 +3242,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,575</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3253,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3287,22 +3293,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
         <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3345,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
@@ -3379,12 +3385,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3394,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -3425,12 +3431,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3440,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3451,42 +3457,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3517,12 +3523,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3532,255 +3538,249 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>upper arch reverse curve of spee</t>
+          <t>Upper Arch Reverse Curve of Spee</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>maxillary expander</t>
+          <t>Maxillary Expander</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LLHA</t>
+          <t>llha</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Anterior Crossbite</t>
+          <t>anterior crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Debonded Bracket/Band</t>
+          <t>debonded bracket/band</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3838,53 +3838,47 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intrusion Arch</t>
+          <t>intrusion arch</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3947,27 +3941,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3976,10 +3970,10 @@
         </is>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4196,47 +4190,53 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>arch coordination</t>
+          <t>Arch Coordination</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4300,22 +4300,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,423</t>
+          <t>0,353</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,810</t>
+          <t>0,709</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,580</t>
+          <t>0,577</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,955</t>
+          <t>0,924</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">

--- a/data/5_results/no_prompt/result_no_prompt_4.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_4.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,735</t>
+          <t>0,850</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,844</t>
+          <t>0,922</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,785</t>
+          <t>0,885</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,997</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>128,000</t>
+          <t>129,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,60</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I2" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,707</t>
+          <t>0,814</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,812</t>
+          <t>0,884</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,756</t>
+          <t>0,848</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,975</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>128,000</t>
+          <t>129,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,60</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I3" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -599,17 +599,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,776</t>
+          <t>0,856</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,864</t>
+          <t>0,902</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,817</t>
+          <t>0,878</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -645,27 +645,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,721</t>
+          <t>0,813</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,848</t>
+          <t>0,897</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,779</t>
+          <t>0,853</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,972</t>
+          <t>0,973</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>125,000</t>
+          <t>126,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -691,17 +691,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,603</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,587</t>
+          <t>0,577</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,585</t>
+          <t>0,590</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>138,000</t>
+          <t>137,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" t="n">
+        <v>52</v>
+      </c>
+      <c r="J6" t="n">
         <v>58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,604</t>
+          <t>0,644</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,618</t>
+          <t>0,644</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,611</t>
+          <t>0,644</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>136,000</t>
+          <t>132,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J7" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -783,27 +783,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,209</t>
+          <t>0,395</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,343</t>
+          <t>0,479</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,259</t>
+          <t>0,433</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,980</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>71,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I8" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="J8" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,526</t>
+          <t>0,580</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,615</t>
+          <t>0,785</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,567</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,792</t>
+          <t>0,853</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,393</t>
+          <t>0,450</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,735</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,507</t>
+          <t>0,558</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,613</t>
+          <t>0,630</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,778</t>
+          <t>0,754</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,685</t>
+          <t>0,687</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,994</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63,000</t>
+          <t>61,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,525</t>
+          <t>0,577</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,672</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,587</t>
+          <t>0,621</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63,000</t>
+          <t>61,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,635</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,723</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,676</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I13" t="n">
         <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,608</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,703</t>
+          <t>0,645</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,652</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,998</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64,000</t>
+          <t>62,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>0,759</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,595</t>
+          <t>0,646</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>57,000</t>
+          <t>54,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,461</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,745</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,569</t>
+          <t>0,633</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,997</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,575</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,793</t>
+          <t>0,862</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,662</t>
+          <t>0,690</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,986</t>
+          <t>0,878</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,764</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,764</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,454</t>
+          <t>0,764</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,970</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>57,000</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,396</t>
+          <t>0,706</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,686</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,477</t>
+          <t>0,696</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,895</t>
+          <t>0,866</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,528</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,602</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,903</t>
+          <t>0,837</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1381,27 +1381,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,569</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,659</t>
+          <t>0,725</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,637</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,950</t>
+          <t>0,970</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,278</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,294</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,356</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,978</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,676</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,658</t>
+          <t>0,526</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,984</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,211</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,298</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,869</t>
+          <t>0,889</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1565,22 +1565,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,806</t>
+          <t>0,793</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,744</t>
+          <t>0,590</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,773</t>
+          <t>0,676</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,978</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,095</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,652</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,536</t>
+          <t>0,560</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1677,19 +1677,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
         <v>8</v>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,281</t>
+          <t>0,293</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,692</t>
+          <t>0,654</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,405</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>0,233</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,326</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="H29" t="n">
+        <v>7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>32</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,817</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1841,22 +1841,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,095</t>
+          <t>0,130</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,188</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,252</t>
+          <t>0,494</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,378</t>
+          <t>0,292</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,483</t>
+          <t>0,406</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J32" t="n">
         <v>7</v>
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,586</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,895</t>
+          <t>0,842</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,708</t>
+          <t>0,780</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,421</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,474</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,410</t>
+          <t>0,514</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2008,13 +2008,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,619</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,542</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,578</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0,067</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0,100</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>1,000</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0,067</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0,067</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>14</v>
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,118</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
         <v>5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2255,24 +2255,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>0,750</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,706</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0,333</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0,333</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>9,000</t>
@@ -2284,13 +2284,13 @@
         </is>
       </c>
       <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
         <v>3</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>0,917</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0,917</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,917</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>1,000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0,917</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0,957</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0,917</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2333,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,211</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2376,13 +2376,13 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2393,19 +2393,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>0,600</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0,429</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>0,500</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0,143</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0,222</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>1,000</t>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2471,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
@@ -2480,53 +2480,47 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cross Elastic</t>
+          <t>cross elastic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2537,22 +2531,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2566,13 +2560,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2583,7 +2577,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2593,7 +2587,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2615,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
@@ -2629,7 +2623,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2639,7 +2633,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2661,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>2</v>
@@ -2690,7 +2684,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2707,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>6</v>
@@ -2721,22 +2715,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,866</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2750,13 +2744,13 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
         <v>3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2767,42 +2761,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,504</t>
+          <t>0,449</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2818,12 +2812,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2842,13 +2836,13 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2859,22 +2853,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>0,333</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0,333</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,484</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2891,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>2</v>
@@ -2937,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>2</v>
@@ -2966,7 +2960,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2983,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -2997,22 +2991,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,850</t>
+          <t>0,589</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3026,13 +3020,13 @@
         </is>
       </c>
       <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
         <v>4</v>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3048,17 +3042,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3072,13 +3066,13 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3104,7 +3098,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3121,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>4</v>
@@ -3196,7 +3190,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3213,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3259,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3268,47 +3262,53 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>closed spring</t>
+          <t>Closed Spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -3457,22 +3457,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3936,47 +3936,53 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lower arch accentuated curve of spee</t>
+          <t>Lower Arch Accentuated Curve of Spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4300,22 +4306,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,353</t>
+          <t>0,422</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,709</t>
+          <t>0,726</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,577</t>
+          <t>0,639</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,924</t>
+          <t>0,936</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4399,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
